--- a/管理・設計ドキュメント/02_基本設計/12x.画面設計/122.画面設計（scr-op-04-04）商品情報_仮登録（確認）.xlsx
+++ b/管理・設計ドキュメント/02_基本設計/12x.画面設計/122.画面設計（scr-op-04-04）商品情報_仮登録（確認）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\03.夢の宅配便\02_基本設計\12x.画面設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\夢の宅配便\02_基本設計\12x.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E5DD7D-6F8D-4E98-89E0-B6558CFEF489}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C661FC00-82B5-4966-8B72-8748601FD966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1275" windowWidth="24375" windowHeight="14925" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="24375" windowHeight="14925" tabRatio="758" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="64" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="91">
   <si>
     <t>改訂履歴</t>
   </si>
@@ -697,26 +697,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品在庫数</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>個</t>
-    <rPh sb="0" eb="1">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>前画面へ遷移する。
 その際、入力内容を復元する。</t>
     <rPh sb="0" eb="3">
@@ -865,6 +845,104 @@
     </rPh>
     <rPh sb="53" eb="54">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面レイアウト
+　商品在庫数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品在庫数削除</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面項目定義
+　商品在庫数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面定義補足
+　更新テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホソク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品在庫リストを追加</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品在庫リスト
+（product_stock_lists）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザイコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記の商品情報マスタに登録時、同一商品コードが商品在庫リストに未登録の場合、レコードを追加する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ミトウロク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -876,7 +954,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -971,6 +1049,20 @@
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1236,7 +1328,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1403,6 +1495,15 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1417,6 +1518,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1468,7 +1575,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s2435"/>
+                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s2438"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1588,13 +1695,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1730,7 +1837,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1819275" cy="436415"/>
@@ -1790,7 +1897,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1819275" cy="436415"/>
@@ -1846,134 +1953,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2873FEEB-FDBD-4027-B4FF-7364B62C04BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5848350" y="5876925"/>
-          <a:ext cx="2495550" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>別マスタへ移植したため廃止予定</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{211716B9-6D8B-4B6B-A1BD-9F3163639AC0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3905250" y="6029325"/>
-          <a:ext cx="1943100" cy="47625"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2007,7 +1986,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s5421"/>
+                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s5424"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2156,7 +2135,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s10441"/>
+                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s10444"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2668,7 +2647,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5:B5"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
@@ -2717,32 +2696,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="21">
       <c r="A5" s="13">
         <f t="shared" ref="A5:A51" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" s="62">
+        <v>43891</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21">
       <c r="A6" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" s="62">
+        <v>43891</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21">
       <c r="A7" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="B7" s="62">
+        <v>43891</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="13">
@@ -3153,11 +3150,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A9:BK63"/>
+  <dimension ref="A9:BK61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI17" sqref="AI17"/>
+      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -4838,7 +4835,7 @@
         <v>33</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
@@ -4849,37 +4846,23 @@
       <c r="L36" s="28"/>
       <c r="M36" s="28"/>
       <c r="N36" s="28"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="58"/>
-      <c r="Q36" s="58"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="T36" s="28"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="28"/>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="28"/>
-      <c r="AE36" s="28"/>
-      <c r="AF36" s="28"/>
-      <c r="AG36" s="28"/>
-      <c r="AH36" s="28"/>
-      <c r="AI36" s="28"/>
-      <c r="AJ36" s="28"/>
-      <c r="AK36" s="28"/>
-      <c r="AL36" s="28"/>
-      <c r="AM36" s="28"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="46"/>
+      <c r="Y36" s="46"/>
+      <c r="Z36" s="46"/>
+      <c r="AA36" s="46"/>
+      <c r="AB36" s="46"/>
+      <c r="AC36" s="46"/>
+      <c r="AD36" s="47"/>
       <c r="AN36" s="28"/>
-      <c r="AO36" s="28"/>
-      <c r="AP36" s="28"/>
-      <c r="AQ36" s="28"/>
       <c r="AR36" s="28"/>
       <c r="AS36" s="28"/>
       <c r="AT36" s="28"/>
@@ -4896,6 +4879,7 @@
       <c r="BE36" s="28"/>
       <c r="BF36" s="28"/>
       <c r="BG36" s="29"/>
+      <c r="BK36" s="28"/>
     </row>
     <row r="37" spans="1:63">
       <c r="A37" s="27"/>
@@ -4928,19 +4912,6 @@
       <c r="AB37" s="28"/>
       <c r="AC37" s="28"/>
       <c r="AD37" s="28"/>
-      <c r="AE37" s="28"/>
-      <c r="AF37" s="28"/>
-      <c r="AG37" s="28"/>
-      <c r="AH37" s="28"/>
-      <c r="AI37" s="28"/>
-      <c r="AJ37" s="28"/>
-      <c r="AK37" s="28"/>
-      <c r="AL37" s="28"/>
-      <c r="AM37" s="28"/>
-      <c r="AN37" s="28"/>
-      <c r="AO37" s="28"/>
-      <c r="AP37" s="28"/>
-      <c r="AQ37" s="28"/>
       <c r="AR37" s="28"/>
       <c r="AS37" s="28"/>
       <c r="AT37" s="28"/>
@@ -4966,7 +4937,7 @@
         <v>33</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F38" s="28"/>
       <c r="G38" s="28"/>
@@ -5059,6 +5030,7 @@
       <c r="BE39" s="28"/>
       <c r="BF39" s="28"/>
       <c r="BG39" s="29"/>
+      <c r="BK39" s="28"/>
     </row>
     <row r="40" spans="1:63">
       <c r="A40" s="27"/>
@@ -5068,7 +5040,7 @@
         <v>33</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
@@ -5094,7 +5066,14 @@
       <c r="AA40" s="46"/>
       <c r="AB40" s="46"/>
       <c r="AC40" s="46"/>
-      <c r="AD40" s="47"/>
+      <c r="AD40" s="46"/>
+      <c r="AE40" s="60"/>
+      <c r="AF40" s="60"/>
+      <c r="AG40" s="60"/>
+      <c r="AH40" s="60"/>
+      <c r="AI40" s="60"/>
+      <c r="AJ40" s="60"/>
+      <c r="AK40" s="61"/>
       <c r="AN40" s="28"/>
       <c r="AR40" s="28"/>
       <c r="AS40" s="28"/>
@@ -5112,7 +5091,6 @@
       <c r="BE40" s="28"/>
       <c r="BF40" s="28"/>
       <c r="BG40" s="29"/>
-      <c r="BK40" s="28"/>
     </row>
     <row r="41" spans="1:63">
       <c r="A41" s="27"/>
@@ -5145,6 +5123,19 @@
       <c r="AB41" s="28"/>
       <c r="AC41" s="28"/>
       <c r="AD41" s="28"/>
+      <c r="AE41" s="28"/>
+      <c r="AF41" s="28"/>
+      <c r="AG41" s="28"/>
+      <c r="AH41" s="28"/>
+      <c r="AI41" s="28"/>
+      <c r="AJ41" s="28"/>
+      <c r="AK41" s="28"/>
+      <c r="AL41" s="28"/>
+      <c r="AM41" s="28"/>
+      <c r="AN41" s="28"/>
+      <c r="AO41" s="28"/>
+      <c r="AP41" s="28"/>
+      <c r="AQ41" s="28"/>
       <c r="AR41" s="28"/>
       <c r="AS41" s="28"/>
       <c r="AT41" s="28"/>
@@ -5161,7 +5152,6 @@
       <c r="BE41" s="28"/>
       <c r="BF41" s="28"/>
       <c r="BG41" s="29"/>
-      <c r="BK41" s="28"/>
     </row>
     <row r="42" spans="1:63">
       <c r="A42" s="27"/>
@@ -5171,7 +5161,7 @@
         <v>33</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F42" s="28"/>
       <c r="G42" s="28"/>
@@ -5252,7 +5242,6 @@
       <c r="Z43" s="28"/>
       <c r="AA43" s="28"/>
       <c r="AB43" s="28"/>
-      <c r="AC43" s="28"/>
       <c r="AD43" s="28"/>
       <c r="AE43" s="28"/>
       <c r="AF43" s="28"/>
@@ -5263,8 +5252,6 @@
       <c r="AK43" s="28"/>
       <c r="AL43" s="28"/>
       <c r="AM43" s="28"/>
-      <c r="AN43" s="28"/>
-      <c r="AO43" s="28"/>
       <c r="AP43" s="28"/>
       <c r="AQ43" s="28"/>
       <c r="AR43" s="28"/>
@@ -5291,14 +5278,16 @@
       <c r="D44" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E44" s="28" t="s">
-        <v>40</v>
+      <c r="E44" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="F44" s="28"/>
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
+      <c r="J44" s="28" t="s">
+        <v>42</v>
+      </c>
       <c r="K44" s="28"/>
       <c r="L44" s="28"/>
       <c r="M44" s="28"/>
@@ -5310,23 +5299,25 @@
       <c r="S44" s="46"/>
       <c r="T44" s="46"/>
       <c r="U44" s="46"/>
-      <c r="V44" s="46"/>
-      <c r="W44" s="46"/>
-      <c r="X44" s="46"/>
-      <c r="Y44" s="46"/>
-      <c r="Z44" s="46"/>
-      <c r="AA44" s="46"/>
-      <c r="AB44" s="46"/>
-      <c r="AC44" s="46"/>
-      <c r="AD44" s="46"/>
-      <c r="AE44" s="60"/>
-      <c r="AF44" s="60"/>
-      <c r="AG44" s="60"/>
-      <c r="AH44" s="60"/>
-      <c r="AI44" s="60"/>
-      <c r="AJ44" s="60"/>
-      <c r="AK44" s="61"/>
+      <c r="V44" s="47"/>
+      <c r="W44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="28"/>
+      <c r="AD44" s="28"/>
+      <c r="AF44" s="28"/>
+      <c r="AG44" s="28"/>
+      <c r="AH44" s="28"/>
+      <c r="AI44" s="28"/>
+      <c r="AJ44" s="28"/>
+      <c r="AK44" s="28"/>
+      <c r="AL44" s="28"/>
+      <c r="AM44" s="28"/>
       <c r="AN44" s="28"/>
+      <c r="AO44" s="28"/>
+      <c r="AQ44" s="28"/>
       <c r="AR44" s="28"/>
       <c r="AS44" s="28"/>
       <c r="AT44" s="28"/>
@@ -5349,7 +5340,6 @@
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
       <c r="F45" s="28"/>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
@@ -5373,6 +5363,7 @@
       <c r="Z45" s="28"/>
       <c r="AA45" s="28"/>
       <c r="AB45" s="28"/>
+      <c r="AC45" s="28"/>
       <c r="AD45" s="28"/>
       <c r="AE45" s="28"/>
       <c r="AF45" s="28"/>
@@ -5383,7 +5374,8 @@
       <c r="AK45" s="28"/>
       <c r="AL45" s="28"/>
       <c r="AM45" s="28"/>
-      <c r="AP45" s="28"/>
+      <c r="AN45" s="28"/>
+      <c r="AO45" s="28"/>
       <c r="AQ45" s="28"/>
       <c r="AR45" s="28"/>
       <c r="AS45" s="28"/>
@@ -5406,18 +5398,12 @@
       <c r="A46" s="27"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
-      <c r="D46" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>41</v>
-      </c>
+      <c r="D46" s="28"/>
       <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
       <c r="H46" s="28"/>
       <c r="I46" s="28"/>
       <c r="J46" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K46" s="28"/>
       <c r="L46" s="28"/>
@@ -5438,6 +5424,7 @@
       <c r="AB46" s="28"/>
       <c r="AC46" s="28"/>
       <c r="AD46" s="28"/>
+      <c r="AE46" s="28"/>
       <c r="AF46" s="28"/>
       <c r="AG46" s="28"/>
       <c r="AH46" s="28"/>
@@ -5472,7 +5459,6 @@
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
       <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
       <c r="J47" s="28"/>
@@ -5528,27 +5514,27 @@
     <row r="48" spans="1:63">
       <c r="A48" s="27"/>
       <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
       <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
       <c r="H48" s="28"/>
       <c r="I48" s="28"/>
-      <c r="J48" s="28" t="s">
-        <v>43</v>
-      </c>
+      <c r="J48" s="28"/>
       <c r="K48" s="28"/>
       <c r="L48" s="28"/>
       <c r="M48" s="28"/>
       <c r="N48" s="28"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="46"/>
-      <c r="T48" s="46"/>
-      <c r="U48" s="46"/>
-      <c r="V48" s="47"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
       <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
       <c r="Y48" s="28"/>
       <c r="Z48" s="28"/>
       <c r="AA48" s="28"/>
@@ -5566,6 +5552,7 @@
       <c r="AM48" s="28"/>
       <c r="AN48" s="28"/>
       <c r="AO48" s="28"/>
+      <c r="AP48" s="28"/>
       <c r="AQ48" s="28"/>
       <c r="AR48" s="28"/>
       <c r="AS48" s="28"/>
@@ -5587,9 +5574,10 @@
     <row r="49" spans="1:59">
       <c r="A49" s="27"/>
       <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
       <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
       <c r="H49" s="28"/>
       <c r="I49" s="28"/>
       <c r="J49" s="28"/>
@@ -5624,6 +5612,7 @@
       <c r="AM49" s="28"/>
       <c r="AN49" s="28"/>
       <c r="AO49" s="28"/>
+      <c r="AP49" s="28"/>
       <c r="AQ49" s="28"/>
       <c r="AR49" s="28"/>
       <c r="AS49" s="28"/>
@@ -5947,6 +5936,7 @@
       <c r="B55" s="28"/>
       <c r="C55" s="31"/>
       <c r="D55" s="31"/>
+      <c r="E55" s="28"/>
       <c r="F55" s="28"/>
       <c r="G55" s="28"/>
       <c r="H55" s="28"/>
@@ -6007,6 +5997,7 @@
       <c r="B56" s="28"/>
       <c r="C56" s="31"/>
       <c r="D56" s="31"/>
+      <c r="E56" s="28"/>
       <c r="F56" s="28"/>
       <c r="G56" s="28"/>
       <c r="H56" s="28"/>
@@ -6187,8 +6178,8 @@
     <row r="59" spans="1:59">
       <c r="A59" s="27"/>
       <c r="B59" s="28"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
       <c r="E59" s="28"/>
       <c r="F59" s="28"/>
       <c r="G59" s="28"/>
@@ -6248,8 +6239,8 @@
     <row r="60" spans="1:59">
       <c r="A60" s="27"/>
       <c r="B60" s="28"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
       <c r="G60" s="28"/>
@@ -6307,187 +6298,65 @@
       <c r="BG60" s="29"/>
     </row>
     <row r="61" spans="1:59">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="28"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="28"/>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="28"/>
-      <c r="R61" s="28"/>
-      <c r="S61" s="28"/>
-      <c r="T61" s="28"/>
-      <c r="U61" s="28"/>
-      <c r="V61" s="28"/>
-      <c r="W61" s="28"/>
-      <c r="X61" s="28"/>
-      <c r="Y61" s="28"/>
-      <c r="Z61" s="28"/>
-      <c r="AA61" s="28"/>
-      <c r="AB61" s="28"/>
-      <c r="AC61" s="28"/>
-      <c r="AD61" s="28"/>
-      <c r="AE61" s="28"/>
-      <c r="AF61" s="28"/>
-      <c r="AG61" s="28"/>
-      <c r="AH61" s="28"/>
-      <c r="AI61" s="28"/>
-      <c r="AJ61" s="28"/>
-      <c r="AK61" s="28"/>
-      <c r="AL61" s="28"/>
-      <c r="AM61" s="28"/>
-      <c r="AN61" s="28"/>
-      <c r="AO61" s="28"/>
-      <c r="AP61" s="28"/>
-      <c r="AQ61" s="28"/>
-      <c r="AR61" s="28"/>
-      <c r="AS61" s="28"/>
-      <c r="AT61" s="28"/>
-      <c r="AU61" s="28"/>
-      <c r="AV61" s="28"/>
-      <c r="AW61" s="28"/>
-      <c r="AX61" s="28"/>
-      <c r="AY61" s="28"/>
-      <c r="AZ61" s="28"/>
-      <c r="BA61" s="28"/>
-      <c r="BB61" s="28"/>
-      <c r="BC61" s="28"/>
-      <c r="BD61" s="28"/>
-      <c r="BE61" s="28"/>
-      <c r="BF61" s="28"/>
-      <c r="BG61" s="29"/>
-    </row>
-    <row r="62" spans="1:59">
-      <c r="A62" s="27"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="28"/>
-      <c r="P62" s="28"/>
-      <c r="Q62" s="28"/>
-      <c r="R62" s="28"/>
-      <c r="S62" s="28"/>
-      <c r="T62" s="28"/>
-      <c r="U62" s="28"/>
-      <c r="V62" s="28"/>
-      <c r="W62" s="28"/>
-      <c r="X62" s="28"/>
-      <c r="Y62" s="28"/>
-      <c r="Z62" s="28"/>
-      <c r="AA62" s="28"/>
-      <c r="AB62" s="28"/>
-      <c r="AC62" s="28"/>
-      <c r="AD62" s="28"/>
-      <c r="AE62" s="28"/>
-      <c r="AF62" s="28"/>
-      <c r="AG62" s="28"/>
-      <c r="AH62" s="28"/>
-      <c r="AI62" s="28"/>
-      <c r="AJ62" s="28"/>
-      <c r="AK62" s="28"/>
-      <c r="AL62" s="28"/>
-      <c r="AM62" s="28"/>
-      <c r="AN62" s="28"/>
-      <c r="AO62" s="28"/>
-      <c r="AP62" s="28"/>
-      <c r="AQ62" s="28"/>
-      <c r="AR62" s="28"/>
-      <c r="AS62" s="28"/>
-      <c r="AT62" s="28"/>
-      <c r="AU62" s="28"/>
-      <c r="AV62" s="28"/>
-      <c r="AW62" s="28"/>
-      <c r="AX62" s="28"/>
-      <c r="AY62" s="28"/>
-      <c r="AZ62" s="28"/>
-      <c r="BA62" s="28"/>
-      <c r="BB62" s="28"/>
-      <c r="BC62" s="28"/>
-      <c r="BD62" s="28"/>
-      <c r="BE62" s="28"/>
-      <c r="BF62" s="28"/>
-      <c r="BG62" s="29"/>
-    </row>
-    <row r="63" spans="1:59">
-      <c r="A63" s="32"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="33"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="33"/>
-      <c r="R63" s="33"/>
-      <c r="S63" s="33"/>
-      <c r="T63" s="33"/>
-      <c r="U63" s="33"/>
-      <c r="V63" s="33"/>
-      <c r="W63" s="33"/>
-      <c r="X63" s="33"/>
-      <c r="Y63" s="33"/>
-      <c r="Z63" s="33"/>
-      <c r="AA63" s="33"/>
-      <c r="AB63" s="33"/>
-      <c r="AC63" s="33"/>
-      <c r="AD63" s="33"/>
-      <c r="AE63" s="33"/>
-      <c r="AF63" s="33"/>
-      <c r="AG63" s="33"/>
-      <c r="AH63" s="33"/>
-      <c r="AI63" s="33"/>
-      <c r="AJ63" s="33"/>
-      <c r="AK63" s="33"/>
-      <c r="AL63" s="33"/>
-      <c r="AM63" s="33"/>
-      <c r="AN63" s="33"/>
-      <c r="AO63" s="33"/>
-      <c r="AP63" s="33"/>
-      <c r="AQ63" s="33"/>
-      <c r="AR63" s="33"/>
-      <c r="AS63" s="33"/>
-      <c r="AT63" s="33"/>
-      <c r="AU63" s="33"/>
-      <c r="AV63" s="33"/>
-      <c r="AW63" s="33"/>
-      <c r="AX63" s="33"/>
-      <c r="AY63" s="33"/>
-      <c r="AZ63" s="33"/>
-      <c r="BA63" s="33"/>
-      <c r="BB63" s="33"/>
-      <c r="BC63" s="33"/>
-      <c r="BD63" s="33"/>
-      <c r="BE63" s="33"/>
-      <c r="BF63" s="33"/>
-      <c r="BG63" s="34"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="33"/>
+      <c r="O61" s="33"/>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="33"/>
+      <c r="S61" s="33"/>
+      <c r="T61" s="33"/>
+      <c r="U61" s="33"/>
+      <c r="V61" s="33"/>
+      <c r="W61" s="33"/>
+      <c r="X61" s="33"/>
+      <c r="Y61" s="33"/>
+      <c r="Z61" s="33"/>
+      <c r="AA61" s="33"/>
+      <c r="AB61" s="33"/>
+      <c r="AC61" s="33"/>
+      <c r="AD61" s="33"/>
+      <c r="AE61" s="33"/>
+      <c r="AF61" s="33"/>
+      <c r="AG61" s="33"/>
+      <c r="AH61" s="33"/>
+      <c r="AI61" s="33"/>
+      <c r="AJ61" s="33"/>
+      <c r="AK61" s="33"/>
+      <c r="AL61" s="33"/>
+      <c r="AM61" s="33"/>
+      <c r="AN61" s="33"/>
+      <c r="AO61" s="33"/>
+      <c r="AP61" s="33"/>
+      <c r="AQ61" s="33"/>
+      <c r="AR61" s="33"/>
+      <c r="AS61" s="33"/>
+      <c r="AT61" s="33"/>
+      <c r="AU61" s="33"/>
+      <c r="AV61" s="33"/>
+      <c r="AW61" s="33"/>
+      <c r="AX61" s="33"/>
+      <c r="AY61" s="33"/>
+      <c r="AZ61" s="33"/>
+      <c r="BA61" s="33"/>
+      <c r="BB61" s="33"/>
+      <c r="BC61" s="33"/>
+      <c r="BD61" s="33"/>
+      <c r="BE61" s="33"/>
+      <c r="BF61" s="33"/>
+      <c r="BG61" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6503,13 +6372,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6592DB6-6370-4A73-8056-EC7D12F0E54B}">
-  <dimension ref="A7:F58"/>
+  <dimension ref="A7:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6574,7 +6443,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="20">
-        <f t="shared" ref="A10:A58" si="0">ROW()-8</f>
+        <f t="shared" ref="A10:A57" si="0">ROW()-8</f>
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -6635,10 +6504,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D13" s="35" t="s">
         <v>62</v>
@@ -6654,7 +6523,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>51</v>
@@ -6673,10 +6542,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>62</v>
@@ -6692,7 +6561,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>49</v>
@@ -6711,10 +6580,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="35" t="s">
         <v>62</v>
@@ -6730,7 +6599,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>50</v>
@@ -6748,18 +6617,10 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>63</v>
-      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6">
@@ -6844,7 +6705,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="20"/>
       <c r="D27" s="35"/>
       <c r="E27" s="21"/>
@@ -6855,7 +6716,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="35"/>
       <c r="E28" s="21"/>
@@ -7179,17 +7040,6 @@
       <c r="D57" s="35"/>
       <c r="E57" s="21"/>
       <c r="F57" s="20"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="20">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7202,13 +7052,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17180161-7331-4DBF-8351-1CA79027618E}">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7341,71 +7191,75 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="27">
       <c r="A10" s="20">
-        <f t="shared" ref="A10:A66" si="0">ROW()-8</f>
+        <f>ROW()-8</f>
         <v>2</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
+      <c r="C10" s="71" t="s">
+        <v>89</v>
+      </c>
       <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="E10" s="71" t="s">
+        <v>90</v>
+      </c>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:10" ht="27">
+    <row r="11" spans="1:10">
       <c r="A11" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A11:A67" si="0">ROW()-8</f>
         <v>3</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" ht="27">
+      <c r="A12" s="20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C12" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="20">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:10" ht="27">
+    <row r="13" spans="1:10">
       <c r="A13" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" ht="27">
+      <c r="A14" s="20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="20">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
       <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="E14" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:10">
@@ -7414,13 +7268,9 @@
         <v>7</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="21" t="s">
-        <v>56</v>
-      </c>
+      <c r="C15" s="21"/>
       <c r="D15" s="21"/>
-      <c r="E15" s="21" t="s">
-        <v>80</v>
-      </c>
+      <c r="E15" s="21"/>
       <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:10">
@@ -7429,56 +7279,54 @@
         <v>8</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
+      <c r="C16" s="21" t="s">
+        <v>56</v>
+      </c>
       <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="E16" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:6" ht="54">
+    <row r="17" spans="1:6">
       <c r="A17" s="20">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:6" ht="54">
+      <c r="A18" s="20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D18" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="21" t="s">
+      <c r="E18" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="20">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="20">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>73</v>
-      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="21" t="s">
-        <v>74</v>
-      </c>
+      <c r="E19" s="21"/>
       <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6">
@@ -7486,73 +7334,73 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
+      <c r="B20" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>73</v>
+      </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="1:6" ht="27">
+    <row r="21" spans="1:6">
       <c r="A21" s="20">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="21" t="s">
-        <v>72</v>
-      </c>
+      <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F21" s="20"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="27">
       <c r="A22" s="20">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
+      <c r="C22" s="21" t="s">
+        <v>72</v>
+      </c>
       <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+      <c r="E22" s="21" t="s">
+        <v>76</v>
+      </c>
       <c r="F22" s="20"/>
     </row>
-    <row r="23" spans="1:6" ht="94.5">
+    <row r="23" spans="1:6">
       <c r="A23" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:6" ht="94.5">
+      <c r="A24" s="20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C24" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="20">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="20"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="20">
@@ -7560,12 +7408,14 @@
         <v>17</v>
       </c>
       <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
+      <c r="C25" s="21" t="s">
+        <v>80</v>
+      </c>
       <c r="D25" s="21" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F25" s="20"/>
     </row>
@@ -7576,9 +7426,13 @@
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
+      <c r="D26" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="20">
@@ -7600,7 +7454,7 @@
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
-      <c r="F28" s="20"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="20">
@@ -8022,7 +7876,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="20">
-        <f t="shared" ref="A67:A91" si="1">ROW()-8</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B67" s="21"/>
@@ -8033,7 +7887,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A68:A92" si="1">ROW()-8</f>
         <v>60</v>
       </c>
       <c r="B68" s="21"/>
@@ -8294,6 +8148,17 @@
       <c r="D91" s="21"/>
       <c r="E91" s="21"/>
       <c r="F91" s="20"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="20">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8322,7 +8187,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="62"/>
+      <c r="A1" s="65"/>
       <c r="B1" s="17" t="s">
         <v>7</v>
       </c>
@@ -8337,15 +8202,15 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A2" s="63"/>
+      <c r="A2" s="66"/>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
+      <c r="C2" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="2">
